--- a/overall_results_averages.xlsx
+++ b/overall_results_averages.xlsx
@@ -2226,7 +2226,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B82">
         <v>0.08452024390234174</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B83">
         <v>0.03698621952839169</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B84">
         <v>0.01728489524263324</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B85">
         <v>0.001474853424983908</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B86">
         <v>0.01815754468326099</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B87">
         <v>0.001449928297862157</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B88">
         <v>0.02290602163564072</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B89">
         <v>0.02349238541092245</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B90">
         <v>0.02927645543612063</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B91">
         <v>0.04516406537458029</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B92">
         <v>0.0474601659148611</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B93">
         <v>0.04876402808185033</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B94">
         <v>0.05088315742056478</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B95">
         <v>0.05572235351824488</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B96">
         <v>0.04107454317548242</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B97">
         <v>0.0409043146719389</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B98">
         <v>0.06917253726285635</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B99">
         <v>0.07788840422426092</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B100">
         <v>0.06553930835762975</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B101">
         <v>0.1130006014720233</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B102">
         <v>0.06831522088967909</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B103">
         <v>0.07094546872714642</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B104">
         <v>0.04259423052137712</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B105">
         <v>0.02332174741889936</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B106">
         <v>0.03831833102416555</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B107">
         <v>0.02434804452445937</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B108">
         <v>0.04691635729255986</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B109">
         <v>0.04825870401780136</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B110">
         <v>0.05070011669889709</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B111">
         <v>0.06307971878482969</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B112">
         <v>0.06972313452143976</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B113">
         <v>0.07639868199109666</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B114">
         <v>0.07874892832957124</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B115">
         <v>0.07841096547549463</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B116">
         <v>0.06771564591278421</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B117">
         <v>0.06910421849051365</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B118">
         <v>0.08933304970314908</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B119">
         <v>0.09297613620384211</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B120">
         <v>0.09342221541633287</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B121">
         <v>0.125338954676378</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B122">
         <v>0.1834998785650646</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B123">
         <v>0.04036787993261933</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B124">
         <v>-0.004406802541909624</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B125">
         <v>0.0003878655349571361</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B126">
         <v>-0.007348148517124686</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B127">
         <v>-0.002270215806120134</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B128">
         <v>-0.01264018635207922</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B129">
         <v>-0.003053467702185723</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B130">
         <v>-0.00189253716246882</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B131">
         <v>0.04079580104654965</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B132">
         <v>0.0449100188379107</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B133">
         <v>0.03110709384295916</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B134">
         <v>0.04097401618805577</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B135">
         <v>0.05497583601018598</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B136">
         <v>0.03716328016858976</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B137">
         <v>0.05337113429600856</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B138">
         <v>0.05958017117008636</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B139">
         <v>0.07345451240201427</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B140">
         <v>0.09278355958477663</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B141">
         <v>0.09284554713823044</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B142">
         <v>0.2650963384719529</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B143">
         <v>0.09461829564523773</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B144">
         <v>0.04840894580951646</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B145">
         <v>0.04915820830850451</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B146">
         <v>0.04037931873848724</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B147">
         <v>0.04714489043011709</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B148">
         <v>0.03207278574308356</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B149">
         <v>0.0422623695516268</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B150">
         <v>0.04076930828063875</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B151">
         <v>0.08085303811126697</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B152">
         <v>0.07941852201584042</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B153">
         <v>0.06525074367612471</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B154">
         <v>0.08073349029666804</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B155">
         <v>0.08899033669336946</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B156">
         <v>0.07719392390160749</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B157">
         <v>0.09609613696718566</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B158">
         <v>0.09344270896778881</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B159">
         <v>0.09949782353405491</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B160">
         <v>0.1354970327477776</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B161">
         <v>0.1191310475830582</v>

--- a/overall_results_averages.xlsx
+++ b/overall_results_averages.xlsx
@@ -1102,7 +1102,7 @@
         <v>1910</v>
       </c>
       <c r="B33">
-        <v>0.02976279405926816</v>
+        <v>0.02976279405926815</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>1850</v>
       </c>
       <c r="B47">
-        <v>-0.006627975065227345</v>
+        <v>-0.006627975065227344</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>1940</v>
       </c>
       <c r="B56">
-        <v>-0.008795346211150591</v>
+        <v>-0.008795346211150589</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>1950</v>
       </c>
       <c r="B57">
-        <v>-0.004900174332102151</v>
+        <v>-0.004900174332102152</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>1960</v>
       </c>
       <c r="B58">
-        <v>-0.003272956640908734</v>
+        <v>-0.003272956640908735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>1970</v>
       </c>
       <c r="B59">
-        <v>0.002779681981263372</v>
+        <v>0.002779681981263373</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>1800</v>
       </c>
       <c r="B62">
-        <v>0.05682277848100428</v>
+        <v>0.0546416518949647</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>1810</v>
       </c>
       <c r="B63">
-        <v>0.03346979746785624</v>
+        <v>0.03141308856549861</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>1820</v>
       </c>
       <c r="B64">
-        <v>0.02548100967643185</v>
+        <v>0.02442803977101183</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>1830</v>
       </c>
       <c r="B65">
-        <v>0.0246386295933175</v>
+        <v>0.02376384975670428</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>1840</v>
       </c>
       <c r="B66">
-        <v>0.02271996186108948</v>
+        <v>0.02171889062292436</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>1850</v>
       </c>
       <c r="B67">
-        <v>0.02731800355755815</v>
+        <v>0.02722876143982574</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>1860</v>
       </c>
       <c r="B68">
-        <v>0.0264891528358061</v>
+        <v>0.02714671491855315</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>1870</v>
       </c>
       <c r="B69">
-        <v>0.02796862097772953</v>
+        <v>0.02905721644298861</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>1880</v>
       </c>
       <c r="B70">
-        <v>0.02923252577859363</v>
+        <v>0.03017572885638985</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>1890</v>
       </c>
       <c r="B71">
-        <v>0.02713827460520585</v>
+        <v>0.02813814884951981</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>1900</v>
       </c>
       <c r="B72">
-        <v>0.02679149717685044</v>
+        <v>0.02773397095673509</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>1910</v>
       </c>
       <c r="B73">
-        <v>0.02946128922679498</v>
+        <v>0.02982123678470048</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>1920</v>
       </c>
       <c r="B74">
-        <v>0.02647451606439093</v>
+        <v>0.02734294242756382</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>1930</v>
       </c>
       <c r="B75">
-        <v>0.02503512040733872</v>
+        <v>0.02512815604088606</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>1940</v>
       </c>
       <c r="B76">
-        <v>0.03147544790486961</v>
+        <v>0.03109983755450857</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>1950</v>
       </c>
       <c r="B77">
-        <v>0.03419809634314056</v>
+        <v>0.03434483533803963</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>1960</v>
       </c>
       <c r="B78">
-        <v>0.03630398471327491</v>
+        <v>0.03688074334034765</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>1970</v>
       </c>
       <c r="B79">
-        <v>0.03850273716864058</v>
+        <v>0.038754779569243</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>1980</v>
       </c>
       <c r="B80">
-        <v>0.03667643161924818</v>
+        <v>0.03726635237923993</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>1990</v>
       </c>
       <c r="B81">
-        <v>0.03128762919892988</v>
+        <v>0.03192893030092987</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B82">
         <v>0.08452024390234174</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B83">
         <v>0.03698621952839169</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B84">
         <v>0.01728489524263324</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B85">
         <v>0.001474853424983908</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B86">
         <v>0.01815754468326099</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B87">
         <v>0.001449928297862157</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B88">
         <v>0.02290602163564072</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B89">
         <v>0.02349238541092245</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B90">
         <v>0.02927645543612063</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B91">
         <v>0.04516406537458029</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B92">
         <v>0.0474601659148611</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B93">
         <v>0.04876402808185033</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="B94">
         <v>0.05088315742056478</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B95">
         <v>0.05572235351824488</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B96">
         <v>0.04107454317548242</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B97">
         <v>0.0409043146719389</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B98">
         <v>0.06917253726285635</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B99">
         <v>0.07788840422426092</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B100">
         <v>0.06553930835762975</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B101">
         <v>0.1130006014720233</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B102">
         <v>0.06831522088967909</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B103">
         <v>0.07094546872714642</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B104">
         <v>0.04259423052137712</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B105">
         <v>0.02332174741889936</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B106">
         <v>0.03831833102416555</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B107">
         <v>0.02434804452445937</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B108">
         <v>0.04691635729255986</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B109">
         <v>0.04825870401780136</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B110">
-        <v>0.05070011669889709</v>
+        <v>0.05070011669889708</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B111">
         <v>0.06307971878482969</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B112">
         <v>0.06972313452143976</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B113">
         <v>0.07639868199109666</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="B114">
         <v>0.07874892832957124</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B115">
         <v>0.07841096547549463</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B116">
         <v>0.06771564591278421</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B117">
         <v>0.06910421849051365</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B118">
         <v>0.08933304970314908</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B119">
         <v>0.09297613620384211</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B120">
         <v>0.09342221541633287</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B121">
         <v>0.125338954676378</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B122">
         <v>0.1834998785650646</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B123">
         <v>0.04036787993261933</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B124">
         <v>-0.004406802541909624</v>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B125">
-        <v>0.0003878655349571361</v>
+        <v>0.0003878655349571369</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B126">
         <v>-0.007348148517124686</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B127">
-        <v>-0.002270215806120134</v>
+        <v>-0.002270215806120133</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B128">
-        <v>-0.01264018635207922</v>
+        <v>-0.01264018635207921</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B129">
-        <v>-0.003053467702185723</v>
+        <v>-0.003053467702185722</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B130">
         <v>-0.00189253716246882</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B131">
         <v>0.04079580104654965</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B132">
         <v>0.0449100188379107</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B133">
         <v>0.03110709384295916</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="B134">
         <v>0.04097401618805577</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B135">
         <v>0.05497583601018598</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B136">
         <v>0.03716328016858976</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B137">
         <v>0.05337113429600856</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B138">
         <v>0.05958017117008636</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B139">
         <v>0.07345451240201427</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B140">
         <v>0.09278355958477663</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B141">
         <v>0.09284554713823044</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B142">
-        <v>0.2650963384719529</v>
+        <v>0.2632501341174883</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B143">
-        <v>0.09461829564523773</v>
+        <v>0.09184665780942601</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B144">
-        <v>0.04840894580951646</v>
+        <v>0.04772798365041591</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B145">
-        <v>0.04915820830850451</v>
+        <v>0.05410280652791042</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B146">
-        <v>0.04037931873848724</v>
+        <v>0.05092461773203986</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B147">
-        <v>0.04714489043011709</v>
+        <v>0.05792096796336743</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3744,10 +3744,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B148">
-        <v>0.03207278574308356</v>
+        <v>0.04373514701888532</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B149">
-        <v>0.0422623695516268</v>
+        <v>0.05309537940250048</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B150">
-        <v>0.04076930828063875</v>
+        <v>0.05215529387734462</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B151">
-        <v>0.08085303811126697</v>
+        <v>0.0800754426125132</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B152">
-        <v>0.07941852201584042</v>
+        <v>0.07745966768041099</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B153">
-        <v>0.06525074367612471</v>
+        <v>0.06913233641065231</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="B154">
-        <v>0.08073349029666804</v>
+        <v>0.0778281810361395</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B155">
-        <v>0.08899033669336946</v>
+        <v>0.08758335931509389</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B156">
-        <v>0.07719392390160749</v>
+        <v>0.07430139417112784</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B157">
-        <v>0.09609613696718566</v>
+        <v>0.09430719856011707</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B158">
-        <v>0.09344270896778881</v>
+        <v>0.08999121073154619</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B159">
-        <v>0.09949782353405491</v>
+        <v>0.09636686734899613</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B160">
-        <v>0.1354970327477776</v>
+        <v>0.1328034261664134</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B161">
-        <v>0.1191310475830582</v>
+        <v>0.123628743231898</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
